--- a/documentation/auto-eval/P-040-DavidDieperinks-Eval.xlsx
+++ b/documentation/auto-eval/P-040-DavidDieperinks-Eval.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t xml:space="preserve">ÉVALUATION DES COMPÉTENCES EN PRATIQUE POUR LA FORMATION </t>
   </si>
@@ -258,6 +258,18 @@
   <si>
     <t>Processus de travail / Gestion de projet</t>
   </si>
+  <si>
+    <t>Dieperink David</t>
+  </si>
+  <si>
+    <t>CID2a</t>
+  </si>
+  <si>
+    <t>Grégory Charmier</t>
+  </si>
+  <si>
+    <t>P_Web2</t>
+  </si>
 </sst>
 </file>
 
@@ -1661,6 +1673,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1688,46 +1736,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2039,7 +2051,7 @@
   <dimension ref="B1:X83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" zeroHeight="1"/>
@@ -2082,11 +2094,11 @@
       <c r="N1" s="8"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="175" t="s">
+      <c r="Q1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="2:24" ht="37.5" customHeight="1">
@@ -2101,7 +2113,9 @@
       <c r="H2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="145"/>
+      <c r="I2" s="145" t="s">
+        <v>63</v>
+      </c>
       <c r="J2" s="145"/>
       <c r="K2" s="145"/>
       <c r="L2" s="15"/>
@@ -2109,7 +2123,9 @@
       <c r="N2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="145"/>
+      <c r="O2" s="145" t="s">
+        <v>66</v>
+      </c>
       <c r="P2" s="145"/>
       <c r="Q2" s="145"/>
       <c r="R2" s="145"/>
@@ -2126,7 +2142,9 @@
       <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="145"/>
+      <c r="I3" s="145" t="s">
+        <v>64</v>
+      </c>
       <c r="J3" s="145"/>
       <c r="K3" s="146"/>
       <c r="L3" s="22"/>
@@ -2151,7 +2169,9 @@
       <c r="H4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="145"/>
+      <c r="I4" s="145" t="s">
+        <v>65</v>
+      </c>
       <c r="J4" s="145"/>
       <c r="K4" s="145"/>
       <c r="L4" s="4"/>
@@ -2213,26 +2233,26 @@
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="162" t="s">
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="162" t="s">
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="162" t="s">
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
       <c r="R7" s="57" t="s">
         <v>28</v>
       </c>
@@ -2244,10 +2264,10 @@
     </row>
     <row r="8" spans="2:24" ht="100.15" customHeight="1" thickTop="1">
       <c r="B8" s="11"/>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="172" t="s">
+      <c r="D8" s="159" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="62" t="s">
@@ -2259,7 +2279,9 @@
       <c r="G8" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
       <c r="I8" s="148" t="s">
         <v>29</v>
       </c>
@@ -2284,16 +2306,16 @@
       <c r="R8" s="65">
         <v>1</v>
       </c>
-      <c r="S8" s="66" t="str">
+      <c r="S8" s="66">
         <f>IF(COUNT(H8,K8,N8,Q8)=0,"",IF(COUNT(H8,K8,N8,Q8)&lt;&gt;1,"ERREUR",R8*(H8+K8+N8+Q8)))</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="T8" s="17"/>
     </row>
     <row r="9" spans="2:24" ht="100.15" customHeight="1">
       <c r="B9" s="11"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="173"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="160"/>
       <c r="E9" s="67" t="s">
         <v>19</v>
       </c>
@@ -2303,7 +2325,9 @@
       <c r="G9" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="121"/>
+      <c r="H9" s="121">
+        <v>6</v>
+      </c>
       <c r="I9" s="149" t="s">
         <v>29</v>
       </c>
@@ -2328,16 +2352,16 @@
       <c r="R9" s="70">
         <v>1</v>
       </c>
-      <c r="S9" s="71" t="str">
+      <c r="S9" s="71">
         <f t="shared" ref="S9:S15" si="0">IF(COUNT(H9,K9,N9,Q9)=0,"",IF(COUNT(H9,K9,N9,Q9)&lt;&gt;1,"ERREUR",R9*(H9+K9+N9+Q9)))</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="T9" s="17"/>
     </row>
     <row r="10" spans="2:24" ht="100.15" customHeight="1" thickBot="1">
       <c r="B10" s="11"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="173"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="160"/>
       <c r="E10" s="67" t="s">
         <v>20</v>
       </c>
@@ -2347,7 +2371,9 @@
       <c r="G10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="121"/>
+      <c r="H10" s="121">
+        <v>6</v>
+      </c>
       <c r="I10" s="150" t="s">
         <v>29</v>
       </c>
@@ -2372,16 +2398,16 @@
       <c r="R10" s="70">
         <v>0</v>
       </c>
-      <c r="S10" s="71" t="str">
+      <c r="S10" s="71">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="T10" s="17"/>
     </row>
     <row r="11" spans="2:24" ht="100.15" customHeight="1" thickTop="1">
       <c r="B11" s="11"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="166" t="s">
+      <c r="C11" s="157"/>
+      <c r="D11" s="153" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="72" t="s">
@@ -2393,7 +2419,9 @@
       <c r="G11" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>5.5</v>
+      </c>
       <c r="I11" s="148" t="s">
         <v>29</v>
       </c>
@@ -2418,16 +2446,16 @@
       <c r="R11" s="65">
         <v>1</v>
       </c>
-      <c r="S11" s="74" t="str">
+      <c r="S11" s="74">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5.5</v>
       </c>
       <c r="T11" s="17"/>
     </row>
     <row r="12" spans="2:24" ht="100.15" customHeight="1">
       <c r="B12" s="11"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="167"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="154"/>
       <c r="E12" s="75" t="s">
         <v>45</v>
       </c>
@@ -2437,7 +2465,9 @@
       <c r="G12" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="122"/>
+      <c r="H12" s="122">
+        <v>6</v>
+      </c>
       <c r="I12" s="151" t="s">
         <v>29</v>
       </c>
@@ -2462,16 +2492,16 @@
       <c r="R12" s="78">
         <v>1</v>
       </c>
-      <c r="S12" s="79" t="str">
+      <c r="S12" s="79">
         <f t="shared" si="0"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="T12" s="17"/>
     </row>
     <row r="13" spans="2:24" ht="100.15" customHeight="1" thickBot="1">
       <c r="B13" s="11"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="168"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="155"/>
       <c r="E13" s="80" t="s">
         <v>52</v>
       </c>
@@ -2488,7 +2518,9 @@
       <c r="J13" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="127"/>
+      <c r="K13" s="127">
+        <v>5</v>
+      </c>
       <c r="L13" s="150" t="s">
         <v>29</v>
       </c>
@@ -2506,15 +2538,15 @@
       <c r="R13" s="84">
         <v>1</v>
       </c>
-      <c r="S13" s="85" t="str">
+      <c r="S13" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="T13" s="17"/>
     </row>
     <row r="14" spans="2:24" ht="100.15" customHeight="1" thickTop="1" thickBot="1">
       <c r="B14" s="11"/>
-      <c r="C14" s="170"/>
+      <c r="C14" s="157"/>
       <c r="D14" s="86" t="s">
         <v>24</v>
       </c>
@@ -2527,7 +2559,9 @@
       <c r="G14" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="123"/>
+      <c r="H14" s="123">
+        <v>6</v>
+      </c>
       <c r="I14" s="150" t="s">
         <v>29</v>
       </c>
@@ -2552,15 +2586,15 @@
       <c r="R14" s="89">
         <v>1</v>
       </c>
-      <c r="S14" s="90" t="str">
+      <c r="S14" s="90">
         <f t="shared" si="0"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="T14" s="17"/>
     </row>
     <row r="15" spans="2:24" ht="120" customHeight="1" thickTop="1" thickBot="1">
       <c r="B15" s="11"/>
-      <c r="C15" s="171"/>
+      <c r="C15" s="158"/>
       <c r="D15" s="86" t="s">
         <v>34</v>
       </c>
@@ -2573,7 +2607,9 @@
       <c r="G15" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="124"/>
+      <c r="H15" s="124">
+        <v>6</v>
+      </c>
       <c r="I15" s="152" t="s">
         <v>29</v>
       </c>
@@ -2598,9 +2634,9 @@
       <c r="R15" s="89">
         <v>0</v>
       </c>
-      <c r="S15" s="90" t="str">
+      <c r="S15" s="90">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="T15" s="17"/>
     </row>
@@ -2646,7 +2682,7 @@
       <c r="P17" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="Q17" s="174" t="s">
+      <c r="Q17" s="161" t="s">
         <v>6</v>
       </c>
       <c r="R17" s="101"/>
@@ -2669,7 +2705,7 @@
       <c r="N18" s="98"/>
       <c r="O18" s="98"/>
       <c r="P18" s="98"/>
-      <c r="Q18" s="174"/>
+      <c r="Q18" s="161"/>
       <c r="R18" s="101"/>
       <c r="S18" s="101"/>
       <c r="T18" s="17"/>
@@ -2685,14 +2721,14 @@
       <c r="I19" s="140"/>
       <c r="J19" s="140"/>
       <c r="K19" s="50"/>
-      <c r="L19" s="165" t="s">
+      <c r="L19" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="165"/>
+      <c r="M19" s="175"/>
       <c r="N19" s="143"/>
       <c r="O19" s="144"/>
       <c r="P19" s="144"/>
-      <c r="Q19" s="174"/>
+      <c r="Q19" s="161"/>
       <c r="R19" s="101"/>
       <c r="S19" s="101"/>
       <c r="T19" s="17"/>
@@ -2729,11 +2765,11 @@
       <c r="I21" s="140"/>
       <c r="J21" s="140"/>
       <c r="K21" s="50"/>
-      <c r="L21" s="164" t="s">
+      <c r="L21" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="164"/>
-      <c r="N21" s="144"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="143"/>
       <c r="O21" s="144"/>
       <c r="P21" s="144"/>
       <c r="Q21" s="107"/>
@@ -2778,12 +2814,12 @@
       <c r="N23" s="98"/>
       <c r="O23" s="98"/>
       <c r="P23" s="112"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="154" t="str">
+      <c r="Q23" s="172"/>
+      <c r="R23" s="166">
         <f>IF(COUNT(S8:S15)=8,MROUND(SUM(S8:S15)/SUM(R8:R15),0.5),"")</f>
-        <v/>
-      </c>
-      <c r="S23" s="155"/>
+        <v>6</v>
+      </c>
+      <c r="S23" s="167"/>
       <c r="T23" s="17"/>
     </row>
     <row r="24" spans="2:20" ht="30" customHeight="1">
@@ -2802,9 +2838,9 @@
       <c r="N24" s="97"/>
       <c r="O24" s="97"/>
       <c r="P24" s="114"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="156"/>
-      <c r="S24" s="157"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="168"/>
+      <c r="S24" s="169"/>
       <c r="T24" s="17"/>
     </row>
     <row r="25" spans="2:20" ht="28.5" customHeight="1">
@@ -2823,9 +2859,9 @@
       <c r="N25" s="98"/>
       <c r="O25" s="110"/>
       <c r="P25" s="114"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="156"/>
-      <c r="S25" s="157"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="168"/>
+      <c r="S25" s="169"/>
       <c r="T25" s="17"/>
     </row>
     <row r="26" spans="2:20" ht="30" customHeight="1">
@@ -2844,9 +2880,9 @@
       <c r="N26" s="115"/>
       <c r="O26" s="110"/>
       <c r="P26" s="114"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="157"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="169"/>
       <c r="T26" s="17"/>
     </row>
     <row r="27" spans="2:20" ht="30" customHeight="1">
@@ -2865,9 +2901,9 @@
       <c r="N27" s="115"/>
       <c r="O27" s="110"/>
       <c r="P27" s="114"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="159"/>
+      <c r="Q27" s="173"/>
+      <c r="R27" s="170"/>
+      <c r="S27" s="171"/>
       <c r="T27" s="17"/>
     </row>
     <row r="28" spans="2:20" ht="9.75" hidden="1" customHeight="1" thickBot="1">
@@ -2927,14 +2963,14 @@
     <row r="42" spans="2:20"/>
     <row r="43" spans="2:20"/>
     <row r="44" spans="2:20">
-      <c r="M44" s="153"/>
-      <c r="N44" s="153"/>
-      <c r="O44" s="153"/>
+      <c r="M44" s="165"/>
+      <c r="N44" s="165"/>
+      <c r="O44" s="165"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="M45" s="153"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="153"/>
+      <c r="M45" s="165"/>
+      <c r="N45" s="165"/>
+      <c r="O45" s="165"/>
     </row>
     <row r="46" spans="2:20"/>
     <row r="47" spans="2:20"/>
@@ -2977,6 +3013,12 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
+    <mergeCell ref="M44:O45"/>
+    <mergeCell ref="R23:S27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="C8:C15"/>
     <mergeCell ref="D8:D10"/>
@@ -2985,12 +3027,6 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
-    <mergeCell ref="M44:O45"/>
-    <mergeCell ref="R23:S27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3014,15 +3050,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2162CB43CF76245B11EFE89D6DF1917" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="259ef6e5c3532c69d06d7c7c747cf5fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="747d2dec-4ece-4e20-a992-7fd9f36be7a3" xmlns:ns3="4f59afc1-9a8a-4fb4-a375-c0d981ade2a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c735a839ca3dcb9371a6346f7dedbfb8" ns2:_="" ns3:_="">
     <xsd:import namespace="747d2dec-4ece-4e20-a992-7fd9f36be7a3"/>
@@ -3225,6 +3252,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535ED229-479A-4EBC-B0B3-369C4D24ED5B}">
   <ds:schemaRefs>
@@ -3243,14 +3279,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60D8F83D-227F-4AFA-91AA-1A2A96A4349D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2442C0-58E7-4C37-AF9E-73239EE12AEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3267,4 +3295,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60D8F83D-227F-4AFA-91AA-1A2A96A4349D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>